--- a/project1/www/html/lib/20191122/33cancer_20191122/prad.xlsx
+++ b/project1/www/html/lib/20191122/33cancer_20191122/prad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14055" windowHeight="9240"/>
+    <workbookView windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="prad_outputs" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>3;4</t>
   </si>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -298,14 +298,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -332,6 +324,14 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -340,8 +340,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -356,77 +417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,13 +447,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,163 +573,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,15 +640,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,16 +660,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,23 +712,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,18 +737,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,16 +746,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,121 +767,121 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,7 +967,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1223,13 +1223,13 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.75"/>
-    <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.75"/>
     <col min="4" max="4" width="13.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
@@ -1241,11 +1241,11 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>21151173</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1278,11 +1278,11 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
         <v>30478421</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1313,11 +1313,11 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>27165781</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1350,11 +1350,11 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>11751506</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1381,11 +1381,11 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>26786102</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -1416,11 +1416,11 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
         <v>16452231</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -1449,11 +1449,11 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>10702402</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
@@ -1481,10 +1481,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
         <v>22585994</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -1515,11 +1515,11 @@
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
         <v>18931648</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -1549,10 +1549,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>21499236</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1574,10 +1574,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>26137165</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1599,10 +1599,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
         <v>21572435</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1624,10 +1624,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>15031204</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1649,10 +1649,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
         <v>28890397</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1674,10 +1674,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
         <v>30065837</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1699,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
         <v>28319070</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1724,10 +1724,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>20609350</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1749,10 +1749,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>26804168</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>29757368</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1799,10 +1799,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>11888088</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1824,10 +1824,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
         <v>15661808</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1849,10 +1849,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
         <v>30058095</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1874,10 +1874,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
         <v>19211554</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1899,10 +1899,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
         <v>19496069</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1924,10 +1924,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
         <v>15073126</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1949,10 +1949,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>29885405</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1974,10 +1974,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
         <v>28592290</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1999,10 +1999,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
         <v>28889753</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2024,10 +2024,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
         <v>25780911</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2049,10 +2049,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
         <v>17142033</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2074,10 +2074,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
         <v>28621319</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2099,10 +2099,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
         <v>27634112</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2124,10 +2124,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
         <v>26230090</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2149,10 +2149,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
         <v>19838218</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2174,10 +2174,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
         <v>11096460</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2199,10 +2199,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
         <v>29854771</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2223,11 +2223,11 @@
       <c r="A37" s="1">
         <v>42</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1">
         <v>26773436</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2248,11 +2248,11 @@
       <c r="A38" s="1">
         <v>43</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1">
         <v>17804708</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2274,10 +2274,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
         <v>27180064</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2298,11 +2298,11 @@
       <c r="A40" s="1">
         <v>45</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1">
         <v>16175586</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2323,11 +2323,11 @@
       <c r="A41" s="1">
         <v>46</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1">
         <v>18162772</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2348,11 +2348,11 @@
       <c r="A42" s="1">
         <v>47</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="1">
         <v>30311263</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2373,11 +2373,11 @@
       <c r="A43" s="1">
         <v>48</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="1">
         <v>30457249</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2399,10 +2399,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
         <v>30093628</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2424,10 +2424,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
         <v>27375020</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2448,11 +2448,11 @@
       <c r="A46" s="1">
         <v>51</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1">
         <v>28858743</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2473,11 +2473,11 @@
       <c r="A47" s="1">
         <v>52</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
         <v>29740534</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2498,11 +2498,11 @@
       <c r="A48" s="1">
         <v>53</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1">
         <v>27006847</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
